--- a/lista_IBMS.xlsx
+++ b/lista_IBMS.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="BUMPS EE" sheetId="1" state="visible" r:id="rId1"/>
@@ -19,7 +19,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt formatCode="yyyy-mm-dd" numFmtId="164"/>
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
   </numFmts>
   <fonts count="1">
     <font>
@@ -48,16 +48,16 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -426,13 +426,13 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="50"/>
-    <col customWidth="1" max="5" min="5" width="40"/>
-    <col customWidth="1" max="6" min="6" width="17"/>
-    <col customWidth="1" max="9" min="9" width="10"/>
-    <col customWidth="1" max="10" min="10" width="10"/>
-    <col customWidth="1" max="11" min="11" width="10"/>
-    <col customWidth="1" max="12" min="12" width="15"/>
+    <col width="50" customWidth="1" min="1" max="1"/>
+    <col width="40" customWidth="1" min="5" max="5"/>
+    <col width="17" customWidth="1" min="6" max="6"/>
+    <col width="10" customWidth="1" min="9" max="9"/>
+    <col width="10" customWidth="1" min="10" max="10"/>
+    <col width="10" customWidth="1" min="11" max="11"/>
+    <col width="15" customWidth="1" min="12" max="12"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -627,7 +627,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -645,13 +645,13 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="50"/>
-    <col customWidth="1" max="5" min="5" width="40"/>
-    <col customWidth="1" max="6" min="6" width="17"/>
-    <col customWidth="1" max="9" min="9" width="10"/>
-    <col customWidth="1" max="10" min="10" width="10"/>
-    <col customWidth="1" max="11" min="11" width="10"/>
-    <col customWidth="1" max="12" min="12" width="15"/>
+    <col width="50" customWidth="1" min="1" max="1"/>
+    <col width="40" customWidth="1" min="5" max="5"/>
+    <col width="17" customWidth="1" min="6" max="6"/>
+    <col width="10" customWidth="1" min="9" max="9"/>
+    <col width="10" customWidth="1" min="10" max="10"/>
+    <col width="10" customWidth="1" min="11" max="11"/>
+    <col width="15" customWidth="1" min="12" max="12"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -760,7 +760,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -778,13 +778,13 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="50"/>
-    <col customWidth="1" max="5" min="5" width="40"/>
-    <col customWidth="1" max="6" min="6" width="17"/>
-    <col customWidth="1" max="9" min="9" width="10"/>
-    <col customWidth="1" max="10" min="10" width="10"/>
-    <col customWidth="1" max="11" min="11" width="10"/>
-    <col customWidth="1" max="12" min="12" width="15"/>
+    <col width="50" customWidth="1" min="1" max="1"/>
+    <col width="40" customWidth="1" min="5" max="5"/>
+    <col width="17" customWidth="1" min="6" max="6"/>
+    <col width="10" customWidth="1" min="9" max="9"/>
+    <col width="10" customWidth="1" min="10" max="10"/>
+    <col width="10" customWidth="1" min="11" max="11"/>
+    <col width="15" customWidth="1" min="12" max="12"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -809,6 +809,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/lista_IBMS.xlsx
+++ b/lista_IBMS.xlsx
@@ -4,12 +4,14 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="BUMPS EE" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="BUMPS MC" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="ALERTAS" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="AMCBRASIL" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="AMCLATAM" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="AMCNORCOL" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="AMCSUR" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="ALERTAS" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -19,7 +21,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
+    <numFmt formatCode="yyyy-mm-dd" numFmtId="164"/>
   </numFmts>
   <fonts count="1">
     <font>
@@ -48,16 +50,16 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -418,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -426,13 +428,13 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="50" customWidth="1" min="1" max="1"/>
-    <col width="40" customWidth="1" min="5" max="5"/>
-    <col width="17" customWidth="1" min="6" max="6"/>
-    <col width="10" customWidth="1" min="9" max="9"/>
-    <col width="10" customWidth="1" min="10" max="10"/>
-    <col width="10" customWidth="1" min="11" max="11"/>
-    <col width="15" customWidth="1" min="12" max="12"/>
+    <col customWidth="1" max="1" min="1" width="50"/>
+    <col customWidth="1" max="5" min="5" width="40"/>
+    <col customWidth="1" max="6" min="6" width="17"/>
+    <col customWidth="1" max="9" min="9" width="10"/>
+    <col customWidth="1" max="10" min="10" width="10"/>
+    <col customWidth="1" max="11" min="11" width="10"/>
+    <col customWidth="1" max="12" min="12" width="15"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -500,33 +502,29 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>AHORA COMIENZA - LA VIDA OLALA</t>
+          <t xml:space="preserve">2020_10_LA VIDA OLALA GEN </t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>700</v>
+        <v>3000</v>
       </c>
       <c r="D2" t="n">
-        <v>700</v>
+        <v>3000</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>NEXT</t>
+          <t>LUNES 23H00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>LATAM</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
+          <t>BRAZIL</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr"/>
       <c r="H2" t="n">
         <v>10</v>
       </c>
@@ -534,7 +532,7 @@
         <v>44116</v>
       </c>
       <c r="J2" s="1" t="n">
-        <v>44926</v>
+        <v>44165</v>
       </c>
       <c r="K2" s="1" t="n">
         <v>44109</v>
@@ -543,33 +541,29 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ENSEGUIDA VOLVEMOS - LA VIDA OLALA</t>
+          <t>2020_10_128705-NOS4A2 ON THE NEXT 205 A 206</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>700</v>
+        <v>2500</v>
       </c>
       <c r="D3" t="n">
-        <v>700</v>
+        <v>2500</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>STAY TUNED</t>
+          <t>PROMO PREMIO OUTUBRO</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>LATAM</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
+          <t>BRAZIL</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
       <c r="H3" t="n">
         <v>10</v>
       </c>
@@ -577,7 +571,7 @@
         <v>44116</v>
       </c>
       <c r="J3" s="1" t="n">
-        <v>44926</v>
+        <v>44165</v>
       </c>
       <c r="K3" s="1" t="n">
         <v>44109</v>
@@ -586,33 +580,29 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>YA VOLVIMOS - LA VIDA OLALA</t>
+          <t>2020_10_WALKING DEAD AGAIN AND AGAIN GEN</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>700</v>
+        <v>3000</v>
       </c>
       <c r="D4" t="n">
-        <v>700</v>
+        <v>3000</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>NOW</t>
+          <t>MIERCOLES 23H00</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>LATAM</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
+          <t>BRAZIL</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
       <c r="H4" t="n">
         <v>10</v>
       </c>
@@ -620,14 +610,102 @@
         <v>44116</v>
       </c>
       <c r="J4" s="1" t="n">
-        <v>44926</v>
+        <v>44165</v>
       </c>
       <c r="K4" s="1" t="n">
         <v>44109</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2020_10_WALKING DEAD AGAIN AND AGAIN GEN AMANHA </t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3000</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3000</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>AMANHA 23H00</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>BRAZIL</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+      <c r="I5" s="1" t="n">
+        <v>44116</v>
+      </c>
+      <c r="J5" s="1" t="n">
+        <v>44165</v>
+      </c>
+      <c r="K5" s="1" t="n">
+        <v>44109</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>SUN</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2020_10_WALKING DEAD AGAIN AND AGAIN GEN HOJE </t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>3000</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3000</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>HOJE 23H00</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>BRAZIL</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+      <c r="I6" s="1" t="n">
+        <v>44116</v>
+      </c>
+      <c r="J6" s="1" t="n">
+        <v>44165</v>
+      </c>
+      <c r="K6" s="1" t="n">
+        <v>44109</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>MON</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -637,7 +715,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -645,13 +723,13 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="50" customWidth="1" min="1" max="1"/>
-    <col width="40" customWidth="1" min="5" max="5"/>
-    <col width="17" customWidth="1" min="6" max="6"/>
-    <col width="10" customWidth="1" min="9" max="9"/>
-    <col width="10" customWidth="1" min="10" max="10"/>
-    <col width="10" customWidth="1" min="11" max="11"/>
-    <col width="15" customWidth="1" min="12" max="12"/>
+    <col customWidth="1" max="1" min="1" width="50"/>
+    <col customWidth="1" max="5" min="5" width="40"/>
+    <col customWidth="1" max="6" min="6" width="17"/>
+    <col customWidth="1" max="9" min="9" width="10"/>
+    <col customWidth="1" max="10" min="10" width="10"/>
+    <col customWidth="1" max="11" min="11" width="10"/>
+    <col customWidth="1" max="12" min="12" width="15"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -719,7 +797,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>A CONT-128705-NOS4A2 ON THE NEXT 205 A 206</t>
+          <t xml:space="preserve">2020_10_LA VIDA OLALA GEN </t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -733,7 +811,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>A CONTINUACION</t>
+          <t>LUNES 23:00 ARG/CHI 22:00 VEN 9:00 PM PER</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -741,11 +819,7 @@
           <t>LATAM</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
+      <c r="G2" t="inlineStr"/>
       <c r="H2" t="n">
         <v>10</v>
       </c>
@@ -753,14 +827,180 @@
         <v>44116</v>
       </c>
       <c r="J2" s="1" t="n">
-        <v>44926</v>
+        <v>44165</v>
       </c>
       <c r="K2" s="1" t="n">
         <v>44109</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2020_10_128705-NOS4A2 ON THE NEXT 205 A 206</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2500</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2500</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>PROMO PREMIO OCTUBRE</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>LATAM</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+      <c r="I3" s="1" t="n">
+        <v>44116</v>
+      </c>
+      <c r="J3" s="1" t="n">
+        <v>44165</v>
+      </c>
+      <c r="K3" s="1" t="n">
+        <v>44109</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2020_10_WALKING DEAD AGAIN AND AGAIN GEN</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>3000</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3000</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>MIERCOLES 23:00 ARG/CHI 22:00 VEN 9:00 PM PER</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>LATAM</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+      <c r="I4" s="1" t="n">
+        <v>44116</v>
+      </c>
+      <c r="J4" s="1" t="n">
+        <v>44165</v>
+      </c>
+      <c r="K4" s="1" t="n">
+        <v>44109</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2020_10_WALKING DEAD AGAIN AND AGAIN GEN MANANA </t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3000</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3000</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>MANANA 23:00 ARG/CHI 22:00 VEN 9:00 PM PER</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>LATAM</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+      <c r="I5" s="1" t="n">
+        <v>44116</v>
+      </c>
+      <c r="J5" s="1" t="n">
+        <v>44165</v>
+      </c>
+      <c r="K5" s="1" t="n">
+        <v>44109</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>SUN</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2020_10_WALKING DEAD AGAIN AND AGAIN GEN ESTA NOCHE </t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>3000</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3000</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>ESTA NOCHE 23:00 ARG/CHI 22:00 VEN 9:00 PM PER</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>LATAM</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+      <c r="I6" s="1" t="n">
+        <v>44116</v>
+      </c>
+      <c r="J6" s="1" t="n">
+        <v>44165</v>
+      </c>
+      <c r="K6" s="1" t="n">
+        <v>44109</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>MON</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -770,7 +1010,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -778,37 +1018,620 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="50" customWidth="1" min="1" max="1"/>
-    <col width="40" customWidth="1" min="5" max="5"/>
-    <col width="17" customWidth="1" min="6" max="6"/>
-    <col width="10" customWidth="1" min="9" max="9"/>
-    <col width="10" customWidth="1" min="10" max="10"/>
-    <col width="10" customWidth="1" min="11" max="11"/>
-    <col width="15" customWidth="1" min="12" max="12"/>
+    <col customWidth="1" max="1" min="1" width="50"/>
+    <col customWidth="1" max="5" min="5" width="40"/>
+    <col customWidth="1" max="6" min="6" width="17"/>
+    <col customWidth="1" max="9" min="9" width="10"/>
+    <col customWidth="1" max="10" min="10" width="10"/>
+    <col customWidth="1" max="11" min="11" width="10"/>
+    <col customWidth="1" max="12" min="12" width="15"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>LOS BUMPS SE CARGAN EN EL FEED MAS CHIC LATAM. BUMP DE 2020_10_GAHWOSKA NO CARGADO.</t>
+          <t>Promo Name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Time Code In</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Time Code Out</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Length</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Detail</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Feed</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>MainMI</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>AFP</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>START</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>END</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>DUE DATE</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>Allowed Days</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Disculpe, el tipo de promo EPISODICA solicitado para la promo 2020_10_128705-NOS4A2 ON THE NEXT 205 A 206 no esta disponible para la señal EGSUR</t>
-        </is>
+          <t xml:space="preserve">2020_10_LA VIDA OLALA GEN </t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>3000</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3000</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>LUNES 11:00 PM</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NORTH + COLOMBIA</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+      <c r="I2" s="1" t="n">
+        <v>44116</v>
+      </c>
+      <c r="J2" s="1" t="n">
+        <v>44165</v>
+      </c>
+      <c r="K2" s="1" t="n">
+        <v>44109</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>2020_10_128705-NOS4A2 ON THE NEXT 205 A 206</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2500</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2500</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>PROMO PREMIO OCTUBRE</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NORTH + COLOMBIA</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+      <c r="I3" s="1" t="n">
+        <v>44116</v>
+      </c>
+      <c r="J3" s="1" t="n">
+        <v>44165</v>
+      </c>
+      <c r="K3" s="1" t="n">
+        <v>44109</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2020_10_WALKING DEAD AGAIN AND AGAIN GEN</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>3000</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3000</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>MIERCOLES 11:00 PM</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NORTH + COLOMBIA</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+      <c r="I4" s="1" t="n">
+        <v>44116</v>
+      </c>
+      <c r="J4" s="1" t="n">
+        <v>44165</v>
+      </c>
+      <c r="K4" s="1" t="n">
+        <v>44109</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2020_10_WALKING DEAD AGAIN AND AGAIN GEN MANANA </t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3000</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3000</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>MANANA 11:00 PM</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NORTH + COLOMBIA</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+      <c r="I5" s="1" t="n">
+        <v>44116</v>
+      </c>
+      <c r="J5" s="1" t="n">
+        <v>44165</v>
+      </c>
+      <c r="K5" s="1" t="n">
+        <v>44109</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>SUN</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2020_10_WALKING DEAD AGAIN AND AGAIN GEN ESTA NOCHE </t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>3000</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3000</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>ESTA NOCHE 11:00 PM</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NORTH + COLOMBIA</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+      <c r="I6" s="1" t="n">
+        <v>44116</v>
+      </c>
+      <c r="J6" s="1" t="n">
+        <v>44165</v>
+      </c>
+      <c r="K6" s="1" t="n">
+        <v>44109</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>MON</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:L6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" width="50"/>
+    <col customWidth="1" max="5" min="5" width="40"/>
+    <col customWidth="1" max="6" min="6" width="17"/>
+    <col customWidth="1" max="9" min="9" width="10"/>
+    <col customWidth="1" max="10" min="10" width="10"/>
+    <col customWidth="1" max="11" min="11" width="10"/>
+    <col customWidth="1" max="12" min="12" width="15"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Promo Name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Time Code In</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Time Code Out</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Length</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Detail</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Feed</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>MainMI</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>AFP</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>START</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>END</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>DUE DATE</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>Allowed Days</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2020_10_LA VIDA OLALA GEN </t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>3000</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3000</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>LUNES 23:00</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>SOUTH</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+      <c r="I2" s="1" t="n">
+        <v>44116</v>
+      </c>
+      <c r="J2" s="1" t="n">
+        <v>44165</v>
+      </c>
+      <c r="K2" s="1" t="n">
+        <v>44109</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2020_10_128705-NOS4A2 ON THE NEXT 205 A 206</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2500</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2500</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>PROMO PREMIO OCTUBRE</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>SOUTH</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+      <c r="I3" s="1" t="n">
+        <v>44116</v>
+      </c>
+      <c r="J3" s="1" t="n">
+        <v>44165</v>
+      </c>
+      <c r="K3" s="1" t="n">
+        <v>44109</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2020_10_WALKING DEAD AGAIN AND AGAIN GEN</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>3000</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3000</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>MIERCOLES 23:00</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>SOUTH</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+      <c r="I4" s="1" t="n">
+        <v>44116</v>
+      </c>
+      <c r="J4" s="1" t="n">
+        <v>44165</v>
+      </c>
+      <c r="K4" s="1" t="n">
+        <v>44109</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2020_10_WALKING DEAD AGAIN AND AGAIN GEN MANANA </t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3000</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3000</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>MANANA 23:00</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>SOUTH</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+      <c r="I5" s="1" t="n">
+        <v>44116</v>
+      </c>
+      <c r="J5" s="1" t="n">
+        <v>44165</v>
+      </c>
+      <c r="K5" s="1" t="n">
+        <v>44109</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>SUN</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2020_10_WALKING DEAD AGAIN AND AGAIN GEN ESTA NOCHE </t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>3000</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3000</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>ESTA NOCHE 23:00</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>SOUTH</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+      <c r="I6" s="1" t="n">
+        <v>44116</v>
+      </c>
+      <c r="J6" s="1" t="n">
+        <v>44165</v>
+      </c>
+      <c r="K6" s="1" t="n">
+        <v>44109</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>MON</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" width="50"/>
+    <col customWidth="1" max="5" min="5" width="40"/>
+    <col customWidth="1" max="6" min="6" width="17"/>
+    <col customWidth="1" max="9" min="9" width="10"/>
+    <col customWidth="1" max="10" min="10" width="10"/>
+    <col customWidth="1" max="11" min="11" width="10"/>
+    <col customWidth="1" max="12" min="12" width="15"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Disculpe, el tipo de promo EPISODICA solicitado para la promo 2020_10_128705-NOS4A2 ON THE NEXT 205 A 206 no esta disponible para la señal EGSUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
           <t>Disculpe, el tipo de promo CAPS ESTRENO solicitado para la promo 2020_10_GUARDIANES DE TRADICION no esta disponible para la señal EGNOR</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/lista_IBMS.xlsx
+++ b/lista_IBMS.xlsx
@@ -7,11 +7,20 @@
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="AMCBRASIL" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="AMCLATAM" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="AMCNORCOL" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="AMCSUR" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="ALERTAS" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="A" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="A1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="A2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="A3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="A4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="A5" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="A6" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="A7" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="A8" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="A9" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="A10" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="A11" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="E" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="ALERTAS" sheetId="14" state="visible" r:id="rId14"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -420,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:L32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -541,46 +550,69 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2020_10_128705-NOS4A2 ON THE NEXT 205 A 206</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C3" t="n">
-        <v>2500</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2500</v>
+          <t>Promo Name</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Time Code In</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Time Code Out</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Length</t>
+        </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>PROMO PREMIO OUTUBRO</t>
+          <t>Detail</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="n">
-        <v>10</v>
-      </c>
-      <c r="I3" s="1" t="n">
-        <v>44116</v>
-      </c>
-      <c r="J3" s="1" t="n">
-        <v>44165</v>
-      </c>
-      <c r="K3" s="1" t="n">
-        <v>44109</v>
+          <t>Feed</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>MainMI</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>AFP</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>START</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>END</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>DUE DATE</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>Allowed Days</t>
+        </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2020_10_WALKING DEAD AGAIN AND AGAIN GEN</t>
+          <t xml:space="preserve">2020_10_LA VIDA OLALA GEN </t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -594,12 +626,12 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>MIERCOLES 23H00</t>
+          <t>LUNES 23:00 ARG/CHI 22:00 VEN 9:00 PM PER</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>LATAM</t>
         </is>
       </c>
       <c r="G4" t="inlineStr"/>
@@ -619,51 +651,69 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t xml:space="preserve">2020_10_WALKING DEAD AGAIN AND AGAIN GEN AMANHA </t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>0</v>
-      </c>
-      <c r="C5" t="n">
-        <v>3000</v>
-      </c>
-      <c r="D5" t="n">
-        <v>3000</v>
+          <t>Promo Name</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Time Code In</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Time Code Out</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Length</t>
+        </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>AMANHA 23H00</t>
+          <t>Detail</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="n">
-        <v>10</v>
-      </c>
-      <c r="I5" s="1" t="n">
-        <v>44116</v>
-      </c>
-      <c r="J5" s="1" t="n">
-        <v>44165</v>
-      </c>
-      <c r="K5" s="1" t="n">
-        <v>44109</v>
+          <t>Feed</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>MainMI</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>AFP</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>START</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>END</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>DUE DATE</t>
+        </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>SUN</t>
+          <t>Allowed Days</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t xml:space="preserve">2020_10_WALKING DEAD AGAIN AND AGAIN GEN HOJE </t>
+          <t xml:space="preserve">2020_10_LA VIDA OLALA GEN </t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -677,12 +727,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>HOJE 23H00</t>
+          <t>LUNES 11:00 PM</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>NORTH + COLOMBIA</t>
         </is>
       </c>
       <c r="G6" t="inlineStr"/>
@@ -698,7 +748,1263 @@
       <c r="K6" s="1" t="n">
         <v>44109</v>
       </c>
-      <c r="L6" t="inlineStr">
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Promo Name</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Time Code In</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Time Code Out</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Length</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Detail</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Feed</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>MainMI</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>AFP</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>START</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>END</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>DUE DATE</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>Allowed Days</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2020_10_LA VIDA OLALA GEN </t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>3000</v>
+      </c>
+      <c r="D8" t="n">
+        <v>3000</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>LUNES 23:00</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>SOUTH</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+      <c r="I8" s="1" t="n">
+        <v>44116</v>
+      </c>
+      <c r="J8" s="1" t="n">
+        <v>44165</v>
+      </c>
+      <c r="K8" s="1" t="n">
+        <v>44109</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Promo Name</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Time Code In</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Time Code Out</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Length</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Detail</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Feed</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>MainMI</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>AFP</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>START</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>END</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>DUE DATE</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>Allowed Days</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2020_10_128705-NOS4A2 ON THE NEXT 205 A 206</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>2500</v>
+      </c>
+      <c r="D10" t="n">
+        <v>2500</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>PROMO PREMIO OUTUBRO</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>BRAZIL</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+      <c r="I10" s="1" t="n">
+        <v>44116</v>
+      </c>
+      <c r="J10" s="1" t="n">
+        <v>44165</v>
+      </c>
+      <c r="K10" s="1" t="n">
+        <v>44109</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Promo Name</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Time Code In</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Time Code Out</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Length</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Detail</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Feed</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>MainMI</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>AFP</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>START</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>END</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>DUE DATE</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>Allowed Days</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2020_10_128705-NOS4A2 ON THE NEXT 205 A 206</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>2500</v>
+      </c>
+      <c r="D12" t="n">
+        <v>2500</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>PROMO PREMIO OCTUBRE</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>LATAM</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+      <c r="I12" s="1" t="n">
+        <v>44116</v>
+      </c>
+      <c r="J12" s="1" t="n">
+        <v>44165</v>
+      </c>
+      <c r="K12" s="1" t="n">
+        <v>44109</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Promo Name</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Time Code In</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Time Code Out</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Length</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Detail</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Feed</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>MainMI</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>AFP</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>START</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>END</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>DUE DATE</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>Allowed Days</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2020_10_128705-NOS4A2 ON THE NEXT 205 A 206</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>2500</v>
+      </c>
+      <c r="D14" t="n">
+        <v>2500</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>PROMO PREMIO OCTUBRE</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NORTH + COLOMBIA</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+      <c r="I14" s="1" t="n">
+        <v>44116</v>
+      </c>
+      <c r="J14" s="1" t="n">
+        <v>44165</v>
+      </c>
+      <c r="K14" s="1" t="n">
+        <v>44109</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Promo Name</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Time Code In</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Time Code Out</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Length</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Detail</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Feed</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>MainMI</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>AFP</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>START</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>END</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>DUE DATE</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>Allowed Days</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2020_10_128705-NOS4A2 ON THE NEXT 205 A 206</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>2500</v>
+      </c>
+      <c r="D16" t="n">
+        <v>2500</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>PROMO PREMIO OCTUBRE</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>SOUTH</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+      <c r="I16" s="1" t="n">
+        <v>44116</v>
+      </c>
+      <c r="J16" s="1" t="n">
+        <v>44165</v>
+      </c>
+      <c r="K16" s="1" t="n">
+        <v>44109</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Promo Name</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Time Code In</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Time Code Out</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Length</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Detail</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Feed</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>MainMI</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>AFP</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>START</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>END</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>DUE DATE</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>Allowed Days</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2020_10_WALKING DEAD AGAIN AND AGAIN GEN</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>3000</v>
+      </c>
+      <c r="D18" t="n">
+        <v>3000</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>MIERCOLES 23H00</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>BRAZIL</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+      <c r="I18" s="1" t="n">
+        <v>44116</v>
+      </c>
+      <c r="J18" s="1" t="n">
+        <v>44165</v>
+      </c>
+      <c r="K18" s="1" t="n">
+        <v>44109</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2020_10_WALKING DEAD AGAIN AND AGAIN GEN AMANHA </t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>3000</v>
+      </c>
+      <c r="D19" t="n">
+        <v>3000</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>AMANHA 23H00</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>BRAZIL</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+      <c r="I19" s="1" t="n">
+        <v>44116</v>
+      </c>
+      <c r="J19" s="1" t="n">
+        <v>44165</v>
+      </c>
+      <c r="K19" s="1" t="n">
+        <v>44109</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>SUN</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2020_10_WALKING DEAD AGAIN AND AGAIN GEN HOJE </t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>3000</v>
+      </c>
+      <c r="D20" t="n">
+        <v>3000</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>HOJE 23H00</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>BRAZIL</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+      <c r="I20" s="1" t="n">
+        <v>44116</v>
+      </c>
+      <c r="J20" s="1" t="n">
+        <v>44165</v>
+      </c>
+      <c r="K20" s="1" t="n">
+        <v>44109</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>MON</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Promo Name</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Time Code In</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Time Code Out</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Length</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Detail</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Feed</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>MainMI</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>AFP</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>START</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>END</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>DUE DATE</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>Allowed Days</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2020_10_WALKING DEAD AGAIN AND AGAIN GEN</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" t="n">
+        <v>3000</v>
+      </c>
+      <c r="D22" t="n">
+        <v>3000</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>MIERCOLES 23:00 ARG/CHI 22:00 VEN 9:00 PM PER</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>LATAM</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+      <c r="I22" s="1" t="n">
+        <v>44116</v>
+      </c>
+      <c r="J22" s="1" t="n">
+        <v>44165</v>
+      </c>
+      <c r="K22" s="1" t="n">
+        <v>44109</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2020_10_WALKING DEAD AGAIN AND AGAIN GEN MANANA </t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>3000</v>
+      </c>
+      <c r="D23" t="n">
+        <v>3000</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>MANANA 23:00 ARG/CHI 22:00 VEN 9:00 PM PER</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>LATAM</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+      <c r="I23" s="1" t="n">
+        <v>44116</v>
+      </c>
+      <c r="J23" s="1" t="n">
+        <v>44165</v>
+      </c>
+      <c r="K23" s="1" t="n">
+        <v>44109</v>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>SUN</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2020_10_WALKING DEAD AGAIN AND AGAIN GEN ESTA NOCHE </t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0</v>
+      </c>
+      <c r="C24" t="n">
+        <v>3000</v>
+      </c>
+      <c r="D24" t="n">
+        <v>3000</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>ESTA NOCHE 23:00 ARG/CHI 22:00 VEN 9:00 PM PER</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>LATAM</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+      <c r="I24" s="1" t="n">
+        <v>44116</v>
+      </c>
+      <c r="J24" s="1" t="n">
+        <v>44165</v>
+      </c>
+      <c r="K24" s="1" t="n">
+        <v>44109</v>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>MON</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Promo Name</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Time Code In</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Time Code Out</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Length</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Detail</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Feed</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>MainMI</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>AFP</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>START</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>END</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>DUE DATE</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>Allowed Days</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2020_10_WALKING DEAD AGAIN AND AGAIN GEN</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>3000</v>
+      </c>
+      <c r="D26" t="n">
+        <v>3000</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>MIERCOLES 11:00 PM</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>NORTH + COLOMBIA</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+      <c r="I26" s="1" t="n">
+        <v>44116</v>
+      </c>
+      <c r="J26" s="1" t="n">
+        <v>44165</v>
+      </c>
+      <c r="K26" s="1" t="n">
+        <v>44109</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2020_10_WALKING DEAD AGAIN AND AGAIN GEN MANANA </t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0</v>
+      </c>
+      <c r="C27" t="n">
+        <v>3000</v>
+      </c>
+      <c r="D27" t="n">
+        <v>3000</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>MANANA 11:00 PM</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>NORTH + COLOMBIA</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+      <c r="I27" s="1" t="n">
+        <v>44116</v>
+      </c>
+      <c r="J27" s="1" t="n">
+        <v>44165</v>
+      </c>
+      <c r="K27" s="1" t="n">
+        <v>44109</v>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>SUN</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2020_10_WALKING DEAD AGAIN AND AGAIN GEN ESTA NOCHE </t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0</v>
+      </c>
+      <c r="C28" t="n">
+        <v>3000</v>
+      </c>
+      <c r="D28" t="n">
+        <v>3000</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>ESTA NOCHE 11:00 PM</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>NORTH + COLOMBIA</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+      <c r="I28" s="1" t="n">
+        <v>44116</v>
+      </c>
+      <c r="J28" s="1" t="n">
+        <v>44165</v>
+      </c>
+      <c r="K28" s="1" t="n">
+        <v>44109</v>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>MON</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Promo Name</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Time Code In</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Time Code Out</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Length</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Detail</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Feed</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>MainMI</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>AFP</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>START</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>END</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>DUE DATE</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>Allowed Days</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2020_10_WALKING DEAD AGAIN AND AGAIN GEN</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0</v>
+      </c>
+      <c r="C30" t="n">
+        <v>3000</v>
+      </c>
+      <c r="D30" t="n">
+        <v>3000</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>MIERCOLES 23:00</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>SOUTH</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+      <c r="I30" s="1" t="n">
+        <v>44116</v>
+      </c>
+      <c r="J30" s="1" t="n">
+        <v>44165</v>
+      </c>
+      <c r="K30" s="1" t="n">
+        <v>44109</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2020_10_WALKING DEAD AGAIN AND AGAIN GEN MANANA </t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0</v>
+      </c>
+      <c r="C31" t="n">
+        <v>3000</v>
+      </c>
+      <c r="D31" t="n">
+        <v>3000</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>MANANA 23:00</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>SOUTH</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+      <c r="I31" s="1" t="n">
+        <v>44116</v>
+      </c>
+      <c r="J31" s="1" t="n">
+        <v>44165</v>
+      </c>
+      <c r="K31" s="1" t="n">
+        <v>44109</v>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>SUN</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2020_10_WALKING DEAD AGAIN AND AGAIN GEN ESTA NOCHE </t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>0</v>
+      </c>
+      <c r="C32" t="n">
+        <v>3000</v>
+      </c>
+      <c r="D32" t="n">
+        <v>3000</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>ESTA NOCHE 23:00</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>SOUTH</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+      <c r="I32" s="1" t="n">
+        <v>44116</v>
+      </c>
+      <c r="J32" s="1" t="n">
+        <v>44165</v>
+      </c>
+      <c r="K32" s="1" t="n">
+        <v>44109</v>
+      </c>
+      <c r="L32" t="inlineStr">
         <is>
           <t>MON</t>
         </is>
@@ -709,13 +2015,94 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" width="50"/>
+    <col customWidth="1" max="5" min="5" width="40"/>
+    <col customWidth="1" max="6" min="6" width="17"/>
+    <col customWidth="1" max="9" min="9" width="10"/>
+    <col customWidth="1" max="10" min="10" width="10"/>
+    <col customWidth="1" max="11" min="11" width="10"/>
+    <col customWidth="1" max="12" min="12" width="15"/>
+  </cols>
+  <sheetData/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" width="50"/>
+    <col customWidth="1" max="5" min="5" width="40"/>
+    <col customWidth="1" max="6" min="6" width="17"/>
+    <col customWidth="1" max="9" min="9" width="10"/>
+    <col customWidth="1" max="10" min="10" width="10"/>
+    <col customWidth="1" max="11" min="11" width="10"/>
+    <col customWidth="1" max="12" min="12" width="15"/>
+  </cols>
+  <sheetData/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" width="50"/>
+    <col customWidth="1" max="5" min="5" width="40"/>
+    <col customWidth="1" max="6" min="6" width="17"/>
+    <col customWidth="1" max="9" min="9" width="10"/>
+    <col customWidth="1" max="10" min="10" width="10"/>
+    <col customWidth="1" max="11" min="11" width="10"/>
+    <col customWidth="1" max="12" min="12" width="15"/>
+  </cols>
+  <sheetData/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -797,7 +2184,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t xml:space="preserve">2020_10_LA VIDA OLALA GEN </t>
+          <t>2020_10_128705-NOS4A2 ON THE NEXT 205 A 206 GEN FS</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -811,12 +2198,12 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>LUNES 23:00 ARG/CHI 22:00 VEN 9:00 PM PER</t>
+          <t>LUNES 23:00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>LATAM</t>
+          <t>SOUTH</t>
         </is>
       </c>
       <c r="G2" t="inlineStr"/>
@@ -831,172 +2218,6 @@
       </c>
       <c r="K2" s="1" t="n">
         <v>44109</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>2020_10_128705-NOS4A2 ON THE NEXT 205 A 206</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C3" t="n">
-        <v>2500</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2500</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>PROMO PREMIO OCTUBRE</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>LATAM</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="n">
-        <v>10</v>
-      </c>
-      <c r="I3" s="1" t="n">
-        <v>44116</v>
-      </c>
-      <c r="J3" s="1" t="n">
-        <v>44165</v>
-      </c>
-      <c r="K3" s="1" t="n">
-        <v>44109</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>2020_10_WALKING DEAD AGAIN AND AGAIN GEN</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C4" t="n">
-        <v>3000</v>
-      </c>
-      <c r="D4" t="n">
-        <v>3000</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>MIERCOLES 23:00 ARG/CHI 22:00 VEN 9:00 PM PER</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>LATAM</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="n">
-        <v>10</v>
-      </c>
-      <c r="I4" s="1" t="n">
-        <v>44116</v>
-      </c>
-      <c r="J4" s="1" t="n">
-        <v>44165</v>
-      </c>
-      <c r="K4" s="1" t="n">
-        <v>44109</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">2020_10_WALKING DEAD AGAIN AND AGAIN GEN MANANA </t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>0</v>
-      </c>
-      <c r="C5" t="n">
-        <v>3000</v>
-      </c>
-      <c r="D5" t="n">
-        <v>3000</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>MANANA 23:00 ARG/CHI 22:00 VEN 9:00 PM PER</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>LATAM</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="n">
-        <v>10</v>
-      </c>
-      <c r="I5" s="1" t="n">
-        <v>44116</v>
-      </c>
-      <c r="J5" s="1" t="n">
-        <v>44165</v>
-      </c>
-      <c r="K5" s="1" t="n">
-        <v>44109</v>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>SUN</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">2020_10_WALKING DEAD AGAIN AND AGAIN GEN ESTA NOCHE </t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>0</v>
-      </c>
-      <c r="C6" t="n">
-        <v>3000</v>
-      </c>
-      <c r="D6" t="n">
-        <v>3000</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>ESTA NOCHE 23:00 ARG/CHI 22:00 VEN 9:00 PM PER</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>LATAM</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="n">
-        <v>10</v>
-      </c>
-      <c r="I6" s="1" t="n">
-        <v>44116</v>
-      </c>
-      <c r="J6" s="1" t="n">
-        <v>44165</v>
-      </c>
-      <c r="K6" s="1" t="n">
-        <v>44109</v>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>MON</t>
-        </is>
       </c>
     </row>
   </sheetData>
@@ -1004,13 +2225,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1092,205 +2313,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t xml:space="preserve">2020_10_LA VIDA OLALA GEN </t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>3000</v>
-      </c>
-      <c r="D2" t="n">
-        <v>3000</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>LUNES 11:00 PM</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>NORTH + COLOMBIA</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="n">
-        <v>10</v>
-      </c>
-      <c r="I2" s="1" t="n">
-        <v>44116</v>
-      </c>
-      <c r="J2" s="1" t="n">
-        <v>44165</v>
-      </c>
-      <c r="K2" s="1" t="n">
-        <v>44109</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>2020_10_128705-NOS4A2 ON THE NEXT 205 A 206</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C3" t="n">
-        <v>2500</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2500</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>PROMO PREMIO OCTUBRE</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>NORTH + COLOMBIA</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="n">
-        <v>10</v>
-      </c>
-      <c r="I3" s="1" t="n">
-        <v>44116</v>
-      </c>
-      <c r="J3" s="1" t="n">
-        <v>44165</v>
-      </c>
-      <c r="K3" s="1" t="n">
-        <v>44109</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>2020_10_WALKING DEAD AGAIN AND AGAIN GEN</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C4" t="n">
-        <v>3000</v>
-      </c>
-      <c r="D4" t="n">
-        <v>3000</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>MIERCOLES 11:00 PM</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>NORTH + COLOMBIA</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="n">
-        <v>10</v>
-      </c>
-      <c r="I4" s="1" t="n">
-        <v>44116</v>
-      </c>
-      <c r="J4" s="1" t="n">
-        <v>44165</v>
-      </c>
-      <c r="K4" s="1" t="n">
-        <v>44109</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">2020_10_WALKING DEAD AGAIN AND AGAIN GEN MANANA </t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>0</v>
-      </c>
-      <c r="C5" t="n">
-        <v>3000</v>
-      </c>
-      <c r="D5" t="n">
-        <v>3000</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>MANANA 11:00 PM</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>NORTH + COLOMBIA</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="n">
-        <v>10</v>
-      </c>
-      <c r="I5" s="1" t="n">
-        <v>44116</v>
-      </c>
-      <c r="J5" s="1" t="n">
-        <v>44165</v>
-      </c>
-      <c r="K5" s="1" t="n">
-        <v>44109</v>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>SUN</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">2020_10_WALKING DEAD AGAIN AND AGAIN GEN ESTA NOCHE </t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>0</v>
-      </c>
-      <c r="C6" t="n">
-        <v>3000</v>
-      </c>
-      <c r="D6" t="n">
-        <v>3000</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>ESTA NOCHE 11:00 PM</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>NORTH + COLOMBIA</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="n">
-        <v>10</v>
-      </c>
-      <c r="I6" s="1" t="n">
-        <v>44116</v>
-      </c>
-      <c r="J6" s="1" t="n">
-        <v>44165</v>
-      </c>
-      <c r="K6" s="1" t="n">
-        <v>44109</v>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>MON</t>
+          <t>Disculpe, el tipo de promo CAPS ESTRENO solicitado para la promo 2020_10_GUARDIANES DE TRADICION no esta disponible para la señal ['ALERTAS']</t>
         </is>
       </c>
     </row>
@@ -1299,13 +2322,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1321,286 +2344,18 @@
     <col customWidth="1" max="11" min="11" width="10"/>
     <col customWidth="1" max="12" min="12" width="15"/>
   </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Promo Name</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Time Code In</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Time Code Out</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Length</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Detail</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Feed</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>MainMI</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>AFP</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>START</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>END</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>DUE DATE</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Allowed Days</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">2020_10_LA VIDA OLALA GEN </t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>3000</v>
-      </c>
-      <c r="D2" t="n">
-        <v>3000</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>LUNES 23:00</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>SOUTH</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="n">
-        <v>10</v>
-      </c>
-      <c r="I2" s="1" t="n">
-        <v>44116</v>
-      </c>
-      <c r="J2" s="1" t="n">
-        <v>44165</v>
-      </c>
-      <c r="K2" s="1" t="n">
-        <v>44109</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>2020_10_128705-NOS4A2 ON THE NEXT 205 A 206</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C3" t="n">
-        <v>2500</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2500</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>PROMO PREMIO OCTUBRE</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>SOUTH</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="n">
-        <v>10</v>
-      </c>
-      <c r="I3" s="1" t="n">
-        <v>44116</v>
-      </c>
-      <c r="J3" s="1" t="n">
-        <v>44165</v>
-      </c>
-      <c r="K3" s="1" t="n">
-        <v>44109</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>2020_10_WALKING DEAD AGAIN AND AGAIN GEN</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C4" t="n">
-        <v>3000</v>
-      </c>
-      <c r="D4" t="n">
-        <v>3000</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>MIERCOLES 23:00</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>SOUTH</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="n">
-        <v>10</v>
-      </c>
-      <c r="I4" s="1" t="n">
-        <v>44116</v>
-      </c>
-      <c r="J4" s="1" t="n">
-        <v>44165</v>
-      </c>
-      <c r="K4" s="1" t="n">
-        <v>44109</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">2020_10_WALKING DEAD AGAIN AND AGAIN GEN MANANA </t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>0</v>
-      </c>
-      <c r="C5" t="n">
-        <v>3000</v>
-      </c>
-      <c r="D5" t="n">
-        <v>3000</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>MANANA 23:00</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>SOUTH</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="n">
-        <v>10</v>
-      </c>
-      <c r="I5" s="1" t="n">
-        <v>44116</v>
-      </c>
-      <c r="J5" s="1" t="n">
-        <v>44165</v>
-      </c>
-      <c r="K5" s="1" t="n">
-        <v>44109</v>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>SUN</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">2020_10_WALKING DEAD AGAIN AND AGAIN GEN ESTA NOCHE </t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>0</v>
-      </c>
-      <c r="C6" t="n">
-        <v>3000</v>
-      </c>
-      <c r="D6" t="n">
-        <v>3000</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>ESTA NOCHE 23:00</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>SOUTH</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="n">
-        <v>10</v>
-      </c>
-      <c r="I6" s="1" t="n">
-        <v>44116</v>
-      </c>
-      <c r="J6" s="1" t="n">
-        <v>44165</v>
-      </c>
-      <c r="K6" s="1" t="n">
-        <v>44109</v>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>MON</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1616,22 +2371,169 @@
     <col customWidth="1" max="11" min="11" width="10"/>
     <col customWidth="1" max="12" min="12" width="15"/>
   </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Disculpe, el tipo de promo EPISODICA solicitado para la promo 2020_10_128705-NOS4A2 ON THE NEXT 205 A 206 no esta disponible para la señal EGSUR</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Disculpe, el tipo de promo CAPS ESTRENO solicitado para la promo 2020_10_GUARDIANES DE TRADICION no esta disponible para la señal EGNOR</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" width="50"/>
+    <col customWidth="1" max="5" min="5" width="40"/>
+    <col customWidth="1" max="6" min="6" width="17"/>
+    <col customWidth="1" max="9" min="9" width="10"/>
+    <col customWidth="1" max="10" min="10" width="10"/>
+    <col customWidth="1" max="11" min="11" width="10"/>
+    <col customWidth="1" max="12" min="12" width="15"/>
+  </cols>
+  <sheetData/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" width="50"/>
+    <col customWidth="1" max="5" min="5" width="40"/>
+    <col customWidth="1" max="6" min="6" width="17"/>
+    <col customWidth="1" max="9" min="9" width="10"/>
+    <col customWidth="1" max="10" min="10" width="10"/>
+    <col customWidth="1" max="11" min="11" width="10"/>
+    <col customWidth="1" max="12" min="12" width="15"/>
+  </cols>
+  <sheetData/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" width="50"/>
+    <col customWidth="1" max="5" min="5" width="40"/>
+    <col customWidth="1" max="6" min="6" width="17"/>
+    <col customWidth="1" max="9" min="9" width="10"/>
+    <col customWidth="1" max="10" min="10" width="10"/>
+    <col customWidth="1" max="11" min="11" width="10"/>
+    <col customWidth="1" max="12" min="12" width="15"/>
+  </cols>
+  <sheetData/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" width="50"/>
+    <col customWidth="1" max="5" min="5" width="40"/>
+    <col customWidth="1" max="6" min="6" width="17"/>
+    <col customWidth="1" max="9" min="9" width="10"/>
+    <col customWidth="1" max="10" min="10" width="10"/>
+    <col customWidth="1" max="11" min="11" width="10"/>
+    <col customWidth="1" max="12" min="12" width="15"/>
+  </cols>
+  <sheetData/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" width="50"/>
+    <col customWidth="1" max="5" min="5" width="40"/>
+    <col customWidth="1" max="6" min="6" width="17"/>
+    <col customWidth="1" max="9" min="9" width="10"/>
+    <col customWidth="1" max="10" min="10" width="10"/>
+    <col customWidth="1" max="11" min="11" width="10"/>
+    <col customWidth="1" max="12" min="12" width="15"/>
+  </cols>
+  <sheetData/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" width="50"/>
+    <col customWidth="1" max="5" min="5" width="40"/>
+    <col customWidth="1" max="6" min="6" width="17"/>
+    <col customWidth="1" max="9" min="9" width="10"/>
+    <col customWidth="1" max="10" min="10" width="10"/>
+    <col customWidth="1" max="11" min="11" width="10"/>
+    <col customWidth="1" max="12" min="12" width="15"/>
+  </cols>
+  <sheetData/>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>